--- a/Document/Thông tin kết nối.xlsx
+++ b/Document/Thông tin kết nối.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project\VCS_PETROLIMEX\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8670DED-7868-459E-8305-1D0A41EE22EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F24880-2E44-4D00-9C3B-4CE066016190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E653AC9-ED36-46EE-AADA-049B5FF03ACE}"/>
+    <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{9E653AC9-ED36-46EE-AADA-049B5FF03ACE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>KHO BẾN THUỶ</t>
   </si>
@@ -119,6 +119,30 @@
     </r>
   </si>
   <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>DB: VCS_PETROLIMEX</t>
+  </si>
+  <si>
+    <t>IP: 10.6.8.16,7899</t>
+  </si>
+  <si>
+    <t>User: vcs</t>
+  </si>
+  <si>
+    <t>Pass: Cntt@123</t>
+  </si>
+  <si>
+    <t>DB: 3_ngay44</t>
+  </si>
+  <si>
+    <t>IP :  10.6.10.8</t>
+  </si>
+  <si>
+    <t>Pass: psbinh</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -139,23 +163,11 @@
         <charset val="163"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: http://10.6.8.16:1001</t>
+      <t>: http://10.6.8.16:1000</t>
     </r>
   </si>
   <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>DB: VCS_PETROLIMEX</t>
-  </si>
-  <si>
-    <t>IP: 10.6.8.16,7899</t>
-  </si>
-  <si>
-    <t>User: vcs</t>
-  </si>
-  <si>
-    <t>Pass: Cntt@123</t>
+    <t>DB: VCS_HANGFIRE</t>
   </si>
 </sst>
 </file>
@@ -295,29 +307,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -327,10 +320,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +679,7 @@
   <dimension ref="B3:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,490 +702,496 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="13"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="13"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="13"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="6"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="6"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="6"/>
     </row>
     <row r="4" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="12"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="1" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="12"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="1" t="s">
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="5"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="12"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="5"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="K5" s="11"/>
-      <c r="R5" s="12"/>
-      <c r="T5" s="11"/>
-      <c r="AA5" s="12"/>
+      <c r="B5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="R5" s="5"/>
+      <c r="T5" s="4"/>
+      <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="I6" s="12"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="3" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="I6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="R6" s="12"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="2" t="s">
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="R6" s="5"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="5"/>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="4"/>
+      <c r="D7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="12"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="2" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="M7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="12"/>
-      <c r="T7" s="11"/>
-      <c r="AA7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="5"/>
+      <c r="T7" s="4"/>
+      <c r="AA7" s="5"/>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="2" t="s">
+      <c r="B8" s="4"/>
+      <c r="D8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="12"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="2" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="M8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="12"/>
-      <c r="T8" s="11"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="5"/>
+      <c r="T8" s="4"/>
       <c r="U8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="5"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="K9" s="11"/>
-      <c r="R9" s="12"/>
-      <c r="T9" s="11"/>
+      <c r="B9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="R9" s="5"/>
+      <c r="T9" s="4"/>
       <c r="U9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="5"/>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="5"/>
+      <c r="T10" s="4"/>
+      <c r="AA10" s="5"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="5"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="12"/>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="12"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="12"/>
-      <c r="T10" s="11"/>
-      <c r="AA10" s="12"/>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="12"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="12"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="18" t="s">
+      <c r="V11" s="10"/>
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="D12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="M12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="5"/>
+      <c r="T12" s="4"/>
+      <c r="AA12" s="5"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="D13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="M13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="5"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="18"/>
-      <c r="AA11" s="12"/>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="D12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="12"/>
-      <c r="K12" s="11"/>
-      <c r="M12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="12"/>
-      <c r="T12" s="11"/>
-      <c r="AA12" s="12"/>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="D13" s="7" t="s">
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="D14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="M14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="5"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="R15" s="5"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="5"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="5"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="5"/>
+      <c r="T17" s="4"/>
+      <c r="AA17" s="5"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="D18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="I18" s="5"/>
+      <c r="K18" s="4"/>
+      <c r="M18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="12"/>
+      <c r="R18" s="5"/>
+      <c r="T18" s="4"/>
+      <c r="AA18" s="5"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="D19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="12"/>
-      <c r="K13" s="11"/>
-      <c r="M13" s="7" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="12"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="12"/>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="D14" s="7" t="s">
+      <c r="G19" s="12"/>
+      <c r="I19" s="5"/>
+      <c r="K19" s="4"/>
+      <c r="M19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="12"/>
+      <c r="R19" s="5"/>
+      <c r="T19" s="4"/>
+      <c r="AA19" s="5"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="D20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="12"/>
-      <c r="K14" s="11"/>
-      <c r="M14" s="7" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="I20" s="5"/>
+      <c r="K20" s="4"/>
+      <c r="M20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="12"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="12"/>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="I15" s="12"/>
-      <c r="K15" s="11"/>
-      <c r="R15" s="12"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="12"/>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="12"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="12"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="12"/>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="12"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="12"/>
-      <c r="T17" s="11"/>
-      <c r="AA17" s="12"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="I18" s="12"/>
-      <c r="K18" s="11"/>
-      <c r="M18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="R18" s="12"/>
-      <c r="T18" s="11"/>
-      <c r="AA18" s="12"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="I19" s="12"/>
-      <c r="K19" s="11"/>
-      <c r="M19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="R19" s="12"/>
-      <c r="T19" s="11"/>
-      <c r="AA19" s="12"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="D20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="I20" s="12"/>
-      <c r="K20" s="11"/>
-      <c r="M20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="R20" s="12"/>
-      <c r="T20" s="11"/>
-      <c r="AA20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="12"/>
+      <c r="R20" s="5"/>
+      <c r="T20" s="4"/>
+      <c r="AA20" s="5"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="K21" s="11"/>
-      <c r="R21" s="12"/>
-      <c r="T21" s="11"/>
-      <c r="AA21" s="12"/>
+      <c r="B21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="K21" s="4"/>
+      <c r="R21" s="5"/>
+      <c r="T21" s="4"/>
+      <c r="AA21" s="5"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="16"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="16"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="9"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -1184,23 +1201,18 @@
     <mergeCell ref="X14:Z14"/>
     <mergeCell ref="X15:Z15"/>
     <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="U14:W14"/>
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="U6:Z6"/>
     <mergeCell ref="U8:Z8"/>
     <mergeCell ref="U9:Z9"/>
     <mergeCell ref="U13:W13"/>
-    <mergeCell ref="U14:W14"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="L4:Q4"/>
@@ -1209,25 +1221,30 @@
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="L10:Q10"/>
     <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
